--- a/records/Sowmya_records_translation.xlsx
+++ b/records/Sowmya_records_translation.xlsx
@@ -51,7 +51,7 @@
     <t xml:space="preserve"> Oldest players on debut </t>
   </si>
   <si>
-    <t>అరంగేట్రంలో వయసయిన ఆటగాళ్ల</t>
+    <t>అరంగేట్రం చేసిన పురాతన ( ఓల్డ్ ) ఆటగాళ్ల</t>
   </si>
   <si>
     <t xml:space="preserve"> Fastest to 8000 runs </t>
@@ -132,7 +132,7 @@
     <t xml:space="preserve"> Best figures in a innings by a captain </t>
   </si>
   <si>
-    <t>కెప్టెన్ ఇన్నింగ్స్ లో ఉత్తమ గణాంకాలు సాధించిన ఆటగాళ్ల</t>
+    <t>కెప్టెన్ గా ఒక ఇన్నింగ్స్ లో ఉత్తమ గణాంకాలు సాధించిన ఆటగాళ్ల</t>
   </si>
   <si>
     <t xml:space="preserve"> Fastest to 17000 runs </t>
@@ -174,7 +174,7 @@
     <t xml:space="preserve"> Hundred in last match </t>
   </si>
   <si>
-    <t>చివరి మ్యాచ్ లో శతకాలు చేసిన ఆటగాళ్ల</t>
+    <t>చివరి మ్యాచ్ లో శతకం చేసిన ఆటగాళ్ల</t>
   </si>
   <si>
     <t xml:space="preserve"> Most ducks in a series </t>
@@ -198,7 +198,7 @@
     <t xml:space="preserve"> Most consecutive ducks </t>
   </si>
   <si>
-    <t>అత్యధిక వరుస డక్లు సాధించిన ఆటగాళ్ల</t>
+    <t>వరుసగా అత్యధిక డక్లు సాధించిన ఆటగాళ్ల</t>
   </si>
   <si>
     <t xml:space="preserve"> Most ten-wickets-in-a-match in a career </t>
@@ -249,7 +249,7 @@
     <t xml:space="preserve"> Most maidens in career </t>
   </si>
   <si>
-    <t>కెరీర్ లో అత్యధిక మెయిడెన్ లు సాధించిన ఆటగాళ్ల</t>
+    <t>కెరీర్ లో అత్యధిక మెయిడెన్ లు వేసిన ఆటగాళ్ల</t>
   </si>
   <si>
     <t xml:space="preserve"> Worst career bowling average </t>
@@ -270,7 +270,7 @@
     <t xml:space="preserve"> Fewest ducks in career </t>
   </si>
   <si>
-    <t>కెరీర్ లో అతి తక్కువగ డక్ అవుట్ అయిన ఆటగాళ్ల</t>
+    <t>కెరీర్ లో అతి తక్కువ సార్లు డక్ అవుట్ అయిన ఆటగాళ్ల</t>
   </si>
   <si>
     <t xml:space="preserve"> Most double hundreds in a career </t>
@@ -306,7 +306,7 @@
     <t xml:space="preserve"> Most maidens in an innings </t>
   </si>
   <si>
-    <t>ఒక ఇన్నింగ్స్ లో అత్యధిక మెయిడెన్ లు సాధించిన ఆటగాళ్ల</t>
+    <t>ఒక ఇన్నింగ్స్ లో అత్యధిక మెయిడెన్ లు వేసిన ఆటగాళ్ల</t>
   </si>
   <si>
     <t xml:space="preserve"> Most catches in a series </t>
@@ -324,13 +324,13 @@
     <t xml:space="preserve"> Most player-of-the-series awards </t>
   </si>
   <si>
-    <t>అత్యధిక ప్లేయర్-ఆఫ్-ది-సిరీస్ అవార్డులు సాధించిన ఆటగాళ్ల</t>
+    <t>అత్యధిక ప్లేయర్-ఆఫ్-ది-సిరీస్ అవార్డులు గెల్చుకున్న ఆటగాళ్ల</t>
   </si>
   <si>
     <t xml:space="preserve"> Youngest player to take five-wickets-in-an-innings </t>
   </si>
   <si>
-    <t>ఒక ఇన్నింగ్స్ లో ఐదు వికెట్లు సాధించిన చిన్న వయసు ఆటగాళ్ల</t>
+    <t>ఒక ఇన్నింగ్స్ లో ఐదు వికెట్లు సాధించిన పిన్న వయసు ఆటగాళ్ల</t>
   </si>
   <si>
     <t xml:space="preserve"> Most wickets taken hit wicket </t>
@@ -348,7 +348,7 @@
     <t xml:space="preserve"> Oldest player to score a maiden hundred </t>
   </si>
   <si>
-    <t>తొలి సెంచరీ సాధించిన వయసయిన ఆటగాళ్ల</t>
+    <t>మొదటి మ్యాచ్ లో సెంచరీ సాధించిన పురాతన ( ఓల్డ్ ) ఆటగాళ్ల</t>
   </si>
   <si>
     <t xml:space="preserve"> Fastest to 4000 runs </t>
@@ -396,7 +396,7 @@
     <t xml:space="preserve"> Most innings before first duck </t>
   </si>
   <si>
-    <t>మొదటి డక్ అవుట్ కి ముందు అత్యధిక ఇన్నింగ్స్ ఆడిన ఆటగాళ్ల</t>
+    <t>డక్ అవుట్ అవ్వకుండ అత్యధిక ఇన్నింగ్స్ ఆడిన ఆటగాళ్ల</t>
   </si>
   <si>
     <t xml:space="preserve"> Fastest to 5000 runs </t>
@@ -420,13 +420,13 @@
     <t xml:space="preserve"> Youngest captains </t>
   </si>
   <si>
-    <t>చిన్న వయసులో కెప్టెన్గా వ్యావహరించిన ఆటగాళ్ల</t>
+    <t>పిన్న వయసులో కెప్టెన్ గా వ్యావహరించిన ఆటగాళ్ల</t>
   </si>
   <si>
     <t xml:space="preserve"> Most consecutive matches as captain of a team </t>
   </si>
   <si>
-    <t>ఒక జట్టు కెప్టెన్ గా అత్యధిక వరుస మ్యాచ్ లలో ఆడిన ఆటగాళ్ల</t>
+    <t>ఒక జట్టుకి  కెప్టెన్ గా అత్యధిక వరుస మ్యాచ్ లలో ఆడిన ఆటగాళ్ల</t>
   </si>
   <si>
     <t xml:space="preserve"> Fastest to 300 wickets </t>
@@ -517,11 +517,11 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
-    <font/>
     <font>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
+    <font/>
   </fonts>
   <fills count="3">
     <fill>
@@ -568,10 +568,10 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -833,7 +833,7 @@
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -875,7 +875,7 @@
       <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -889,7 +889,7 @@
       <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -903,7 +903,7 @@
       <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -931,10 +931,10 @@
       <c r="C10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="4"/>
+      <c r="E10" s="3"/>
     </row>
     <row r="11">
       <c r="A11" s="1">
@@ -946,7 +946,7 @@
       <c r="C11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -960,7 +960,7 @@
       <c r="C12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="4"/>
+      <c r="E12" s="3"/>
     </row>
     <row r="13">
       <c r="A13" s="1">
@@ -972,7 +972,7 @@
       <c r="C13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -986,10 +986,10 @@
       <c r="C14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="4"/>
+      <c r="E14" s="3"/>
     </row>
     <row r="15">
       <c r="A15" s="1">
@@ -1001,7 +1001,7 @@
       <c r="C15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1015,7 +1015,7 @@
       <c r="C16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1029,10 +1029,10 @@
       <c r="C17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="4"/>
+      <c r="E17" s="3"/>
     </row>
     <row r="18">
       <c r="A18" s="1">
@@ -1044,10 +1044,10 @@
       <c r="C18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="4"/>
+      <c r="E18" s="3"/>
     </row>
     <row r="19">
       <c r="A19" s="1">
@@ -1059,7 +1059,7 @@
       <c r="C19" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="3" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1073,7 +1073,7 @@
       <c r="C20" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1087,7 +1087,7 @@
       <c r="C21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="3" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1129,10 +1129,10 @@
       <c r="C24" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E24" s="4"/>
+      <c r="E24" s="3"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="1">
@@ -1158,7 +1158,7 @@
       <c r="C26" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="3" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1172,10 +1172,10 @@
       <c r="C27" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E27" s="4"/>
+      <c r="E27" s="3"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="1">
@@ -1215,10 +1215,10 @@
       <c r="C30" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E30" s="4"/>
+      <c r="E30" s="3"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="1">
@@ -1230,10 +1230,10 @@
       <c r="C31" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E31" s="4"/>
+      <c r="E31" s="3"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="1">
@@ -1245,7 +1245,7 @@
       <c r="C32" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="3" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1259,7 +1259,7 @@
       <c r="C33" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="4" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       <c r="C34" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="3" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1287,7 +1287,7 @@
       <c r="C35" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="3" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1315,7 +1315,7 @@
       <c r="C37" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E37" s="4"/>
+      <c r="E37" s="3"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="1">
@@ -1327,7 +1327,7 @@
       <c r="C38" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="4" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1355,7 +1355,7 @@
       <c r="C40" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E40" s="4"/>
+      <c r="E40" s="3"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="1">
@@ -1367,7 +1367,7 @@
       <c r="C41" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="3" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1381,7 +1381,7 @@
       <c r="C42" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="3" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1398,7 +1398,7 @@
       <c r="D43" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E43" s="4"/>
+      <c r="E43" s="3"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="1">
@@ -1410,7 +1410,7 @@
       <c r="C44" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D44" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1424,7 +1424,7 @@
       <c r="C45" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="4" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1438,7 +1438,7 @@
       <c r="C46" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D46" s="4" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1452,7 +1452,7 @@
       <c r="C47" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="4" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1466,7 +1466,7 @@
       <c r="C48" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D48" s="4" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1480,7 +1480,7 @@
       <c r="C49" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D49" s="4" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1494,7 +1494,7 @@
       <c r="C50" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" s="3" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1508,7 +1508,7 @@
       <c r="C51" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D51" s="4" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1522,7 +1522,7 @@
       <c r="C52" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" s="5" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
       <c r="C53" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D53" s="5" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1550,10 +1550,10 @@
       <c r="C54" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D54" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="E54" s="4"/>
+      <c r="E54" s="3"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="1">
@@ -1565,10 +1565,10 @@
       <c r="C55" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D55" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E55" s="4"/>
+      <c r="E55" s="3"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="1">
@@ -1580,10 +1580,10 @@
       <c r="C56" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="D56" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="E56" s="4"/>
+      <c r="E56" s="3"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="1">
@@ -1595,7 +1595,7 @@
       <c r="C57" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="D57" s="4" t="s">
         <v>112</v>
       </c>
     </row>
@@ -1609,7 +1609,7 @@
       <c r="C58" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="D58" s="4" t="s">
         <v>114</v>
       </c>
     </row>
@@ -1623,10 +1623,10 @@
       <c r="C59" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="D59" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E59" s="4"/>
+      <c r="E59" s="3"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="1">
@@ -1652,7 +1652,7 @@
       <c r="C61" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="D61" s="4" t="s">
         <v>120</v>
       </c>
     </row>
@@ -1666,7 +1666,7 @@
       <c r="C62" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="D62" s="4" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1680,7 +1680,7 @@
       <c r="C63" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="D63" s="4" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1694,10 +1694,10 @@
       <c r="C64" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D64" s="4" t="s">
+      <c r="D64" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="E64" s="4"/>
+      <c r="E64" s="3"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="1">
@@ -1737,10 +1737,10 @@
       <c r="C67" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="D67" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="E67" s="4"/>
+      <c r="E67" s="3"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="1">
@@ -1752,7 +1752,7 @@
       <c r="C68" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="D68" s="5" t="s">
         <v>134</v>
       </c>
     </row>
@@ -1766,11 +1766,11 @@
       <c r="C69" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="D69" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="E69" s="4"/>
-      <c r="F69" s="4"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="1">
@@ -1782,7 +1782,7 @@
       <c r="C70" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D70" s="5" t="s">
+      <c r="D70" s="4" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1796,7 +1796,7 @@
       <c r="C71" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D71" s="4" t="s">
+      <c r="D71" s="3" t="s">
         <v>140</v>
       </c>
     </row>
@@ -1810,10 +1810,10 @@
       <c r="C72" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D72" s="4" t="s">
+      <c r="D72" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="E72" s="4"/>
+      <c r="E72" s="3"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="1">
@@ -1825,7 +1825,7 @@
       <c r="C73" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D73" s="4" t="s">
+      <c r="D73" s="3" t="s">
         <v>144</v>
       </c>
     </row>
@@ -1867,10 +1867,10 @@
       <c r="C76" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D76" s="5" t="s">
+      <c r="D76" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="E76" s="4"/>
+      <c r="E76" s="3"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="1">
@@ -1885,7 +1885,7 @@
       <c r="D77" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E77" s="5"/>
+      <c r="E77" s="4"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="1">
@@ -1897,7 +1897,7 @@
       <c r="C78" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D78" s="4" t="s">
+      <c r="D78" s="3" t="s">
         <v>154</v>
       </c>
     </row>
@@ -1911,10 +1911,10 @@
       <c r="C79" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D79" s="4" t="s">
+      <c r="D79" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="E79" s="4"/>
+      <c r="E79" s="3"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="1">
@@ -1926,7 +1926,7 @@
       <c r="C80" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D80" s="5" t="s">
+      <c r="D80" s="4" t="s">
         <v>158</v>
       </c>
     </row>
@@ -1940,7 +1940,7 @@
       <c r="C81" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="E81" s="4"/>
+      <c r="E81" s="3"/>
     </row>
     <row r="82" ht="15.75" customHeight="1"/>
     <row r="83" ht="15.75" customHeight="1"/>
